--- a/file/hyxd_movie_01newdata4.xlsx
+++ b/file/hyxd_movie_01newdata4.xlsx
@@ -11,10 +11,6 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,7 +351,7 @@
   <dimension ref="A1:E932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -371,7 +367,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -385,7 +381,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -400,7 +396,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -415,7 +411,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -430,7 +426,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -445,7 +441,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -460,7 +456,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -475,7 +471,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -490,7 +486,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -505,7 +501,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -520,7 +516,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -535,7 +531,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -550,7 +546,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -565,7 +561,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -580,7 +576,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -595,7 +591,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -610,7 +606,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -625,7 +621,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -640,7 +636,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1"/>
     </row>

--- a/file/hyxd_movie_01newdata4.xlsx
+++ b/file/hyxd_movie_01newdata4.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:E932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -367,7 +367,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -381,7 +381,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -393,7 +393,7 @@
         <v>345</v>
       </c>
       <c r="C3" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>12</v>
